--- a/user.xlsx
+++ b/user.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -57,7 +57,7 @@
     <t>TestScenario_1.TestCase_1</t>
   </si>
   <si>
-    <t>New Contact</t>
+    <t>New User</t>
   </si>
   <si>
     <t>User Needs to Login to Salesforce, from the browser with correct credentials</t>
@@ -66,106 +66,79 @@
     <t>Step 1</t>
   </si>
   <si>
-    <t>Click on the Contact tab, and click on New button</t>
-  </si>
-  <si>
-    <t>User should be navigated to the New  Contact Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid value for required field Salutation, First Name, Last Name </t>
+    <t>Click on the User tab, and click on New button</t>
+  </si>
+  <si>
+    <t>User should be navigated to the New  User Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid value for required field Last Name </t>
   </si>
   <si>
     <t>Step 2</t>
   </si>
   <si>
-    <t>Input valid value in the  Salutation, First Name, Last Name field.</t>
-  </si>
-  <si>
-    <t>User should be able to input value for the Salutation, First Name, Last Name field.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid value for required field  </t>
+    <t>Input valid value in the  Last Name field.</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the Last Name field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid value for required field Email </t>
   </si>
   <si>
     <t>Step 3</t>
   </si>
   <si>
-    <t>Input valid value in the   field.</t>
-  </si>
-  <si>
-    <t>User should be able to input value for the  field.</t>
+    <t>Input valid value in the  Email field.</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the Email field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid value for required field User License </t>
   </si>
   <si>
     <t>Step 4</t>
   </si>
   <si>
-    <t>Click on Save button to save Contact with fields</t>
-  </si>
-  <si>
-    <t>User should be able to validate that a New Contact is created</t>
-  </si>
-  <si>
-    <t>TestScenario_2</t>
-  </si>
-  <si>
-    <t>TestScenario_2.TestCase_1</t>
-  </si>
-  <si>
-    <t>View Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the Contact tab,  and select a Contact </t>
-  </si>
-  <si>
-    <t>User should be navigated to the Contact Page</t>
-  </si>
-  <si>
-    <t>Click on Contact name to View the Details</t>
-  </si>
-  <si>
-    <t>User should be able to view the Contact Details</t>
-  </si>
-  <si>
-    <t>TestScenario_3</t>
-  </si>
-  <si>
-    <t>TestScenario_3.TestCase_1</t>
-  </si>
-  <si>
-    <t>Edit Contact</t>
-  </si>
-  <si>
-    <t>Click on the Contact tab,  and click on existing Contact to modify</t>
-  </si>
-  <si>
-    <t>User is navigated to the Contact Details page</t>
-  </si>
-  <si>
-    <t>User should be able to validate that the Contact is edited</t>
-  </si>
-  <si>
-    <t>TestScenario_4</t>
-  </si>
-  <si>
-    <t>TestScenario_4.TestCase_1</t>
-  </si>
-  <si>
-    <t>Delete Contact</t>
-  </si>
-  <si>
-    <t>Click on the Contact tab,  and select the existing  Contact to delete</t>
-  </si>
-  <si>
-    <t>Click on to the Delete to Delete the Contact</t>
-  </si>
-  <si>
-    <t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Contact</t>
-  </si>
-  <si>
-    <t>Click on Confirm / OK to delete the  Contact</t>
-  </si>
-  <si>
-    <t>User should be able to validate the Contact is deleted</t>
+    <t>Input valid value in the  User License field.</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the User License field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid value for required field Profile </t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Input valid value in the  Profile field.</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the Profile field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid value for required field Role </t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Input valid value in the  Role field.</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the Role field.</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Click on Save button to save User with fields</t>
+  </si>
+  <si>
+    <t>User should be able to validate that a New User is created</t>
   </si>
   <si>
     <t>Approved</t>
@@ -236,8 +209,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0">
-  <autoFilter ref="A1:J14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J8" totalsRowShown="0">
+  <autoFilter ref="A1:J8"/>
   <tableColumns count="10">
     <tableColumn id="1" name="TestScenarioID"/>
     <tableColumn id="2" name="TestCaseID"/>
@@ -539,22 +512,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="61" customWidth="1"/>
-    <col min="8" max="8" width="93.140625" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1"/>
+    <col min="8" max="8" width="56" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
@@ -614,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -630,9 +603,6 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -647,39 +617,27 @@
       <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -687,150 +645,30 @@
       <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
